--- a/data/trans_camb/P57GLOBAL_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P57GLOBAL_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>17.79867950524122</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.935115924599467</v>
+        <v>7.935115924599456</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.836385409428842</v>
@@ -664,7 +664,7 @@
         <v>15.91945536653946</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.824395507791303</v>
+        <v>6.824395507791337</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.543099608104593</v>
+        <v>-8.702950481816542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.911654728601556</v>
+        <v>8.609088668595897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.20718489401385</v>
+        <v>-0.6535158978969385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.14983525506396</v>
+        <v>1.82311268223932</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>14.05906437735179</v>
+        <v>14.16624042074083</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.379319677139182</v>
+        <v>3.383095495354592</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.050055450255192</v>
+        <v>-1.218218334944126</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>13.00787785956782</v>
+        <v>12.92957396451267</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.254407967729151</v>
+        <v>3.401063164611059</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.849331676423865</v>
+        <v>1.132145952995597</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.37403185600095</v>
+        <v>17.27769953628122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.68263428864592</v>
+        <v>10.27387599395542</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.921844602469999</v>
+        <v>10.03705307460952</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>21.2689907285801</v>
+        <v>21.36725295554216</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.14115746908976</v>
+        <v>12.36496303911169</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.286938904647511</v>
+        <v>4.869392957419564</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.69479271069846</v>
+        <v>18.46719519879295</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.15554466859329</v>
+        <v>10.42136878110432</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2587899745599836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1153753258859967</v>
+        <v>0.1153753258859966</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.02607907048108637</v>
@@ -769,7 +769,7 @@
         <v>0.2260770513601592</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.09691532644765052</v>
+        <v>0.096915326447651</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1011509188109037</v>
+        <v>-0.1149949025275692</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1170843610645437</v>
+        <v>0.1125929213613665</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01603670438311985</v>
+        <v>-0.00855513908239623</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03059999122305292</v>
+        <v>0.02511428706755507</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1973740859218691</v>
+        <v>0.1957503188830311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04832303506497165</v>
+        <v>0.048071163144013</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0141838077688857</v>
+        <v>-0.01685977148835287</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1781170387339095</v>
+        <v>0.1775054190170456</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.04541404172299171</v>
+        <v>0.0474581424330042</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02649722848786598</v>
+        <v>0.0161581699037576</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2481285298112983</v>
+        <v>0.2491976416622303</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1531496657792307</v>
+        <v>0.1464716109757453</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1507024704786896</v>
+        <v>0.1486063935885979</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3222072572411172</v>
+        <v>0.3227775434432931</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1836693886031106</v>
+        <v>0.1848734652660391</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07699105471523435</v>
+        <v>0.07121699049955366</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2717505756527351</v>
+        <v>0.2700038644633105</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.147587006792938</v>
+        <v>0.1511083259164467</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.234444983799997</v>
+        <v>-4.071075118139002</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.71160918727301</v>
+        <v>10.59478775479003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6839280292954242</v>
+        <v>0.6431642028770342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8559110849125871</v>
+        <v>0.7890972620156053</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.175036223602797</v>
+        <v>9.236404648769623</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.208927137521247</v>
+        <v>-4.2203326583664</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1819580439967439</v>
+        <v>-0.5109145526353653</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>11.30073121518496</v>
+        <v>11.19424352089688</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6317066318121998</v>
+        <v>-0.3480081304159138</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.354761802225238</v>
+        <v>4.455563520959021</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.27318528165231</v>
+        <v>18.21978293322884</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.610512733107401</v>
+        <v>9.602089672611005</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.148228197564212</v>
+        <v>8.034811791761221</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.40419420547361</v>
+        <v>16.467368173135</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.436066216012964</v>
+        <v>3.045194526561515</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.713044948699026</v>
+        <v>5.403181397693275</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.34593863342747</v>
+        <v>16.35400597358751</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.918551416839945</v>
+        <v>5.216695445960048</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05985350838499888</v>
+        <v>-0.05696537417034375</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1509387547679487</v>
+        <v>0.1478628041979069</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.009896426208492013</v>
+        <v>0.007811530903081394</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01026936820202339</v>
+        <v>0.009734783991367936</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1223516277065565</v>
+        <v>0.122545999007242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05606978152067264</v>
+        <v>-0.05608947677772796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.002348288992782354</v>
+        <v>-0.007494044026160092</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1550354289212047</v>
+        <v>0.154418288811683</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.008658148398097447</v>
+        <v>-0.004798955825327264</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06497610234852109</v>
+        <v>0.06699170858420442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2738434570534611</v>
+        <v>0.2738525511460279</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1415007493363389</v>
+        <v>0.1445229404306565</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1141718533850894</v>
+        <v>0.1117429097134574</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2312165058690083</v>
+        <v>0.2323694447657016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04838218723309798</v>
+        <v>0.04217334904342653</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0827515889509181</v>
+        <v>0.07698290119046508</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2353722258804574</v>
+        <v>0.2347322292372927</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07126705275595946</v>
+        <v>0.07463931914019004</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>10.15727733996059</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-12.76906745232502</v>
+        <v>-12.76906745232503</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.673406110465989</v>
+        <v>-2.630092407754159</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.913200235874718</v>
+        <v>7.991219719693269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.47554219505419</v>
+        <v>-15.22381314047453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1202103379694257</v>
+        <v>0.0354305553026065</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.352346376521957</v>
+        <v>4.774585285252271</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-18.85869581629535</v>
+        <v>-19.10245567363822</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.04355382510412771</v>
+        <v>0.1979064409155328</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.252736616903675</v>
+        <v>7.581234119033701</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-15.92161634818205</v>
+        <v>-15.69957443592637</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.637904423519968</v>
+        <v>5.491663004018322</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.60510421951203</v>
+        <v>15.61749223511885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.576470132713129</v>
+        <v>-5.919897410787088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.692036245831598</v>
+        <v>7.91349488358254</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.77191080328793</v>
+        <v>12.2242630282137</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-10.95624768929338</v>
+        <v>-11.1935255947556</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.491300442078628</v>
+        <v>5.849400650968358</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.96873733293958</v>
+        <v>13.12457860468183</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-9.782948663531872</v>
+        <v>-9.985814790080273</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1401433252583466</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1761790599314182</v>
+        <v>-0.1761790599314183</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0370264845074491</v>
+        <v>-0.0364449384417422</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.110096803580751</v>
+        <v>0.1087997523907893</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2162823244311237</v>
+        <v>-0.2112106552350994</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.002408194235673807</v>
+        <v>0.0003775889470297261</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05617820634708187</v>
+        <v>0.06244492803200893</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2449431057067371</v>
+        <v>-0.2495367117970766</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0006746481892015854</v>
+        <v>0.002651906367920188</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09789370931653002</v>
+        <v>0.1034710901821231</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2161676394373928</v>
+        <v>-0.2140485394990453</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08213961003808089</v>
+        <v>0.08049091745030824</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2298092977072144</v>
+        <v>0.228641947484449</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.09715959640538581</v>
+        <v>-0.08713143180805243</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.106059584123724</v>
+        <v>0.1083859881446577</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1610326410818694</v>
+        <v>0.1684384974906956</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1512683702228354</v>
+        <v>-0.1542186208548834</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07701229504531035</v>
+        <v>0.08226230381745907</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1831434801772518</v>
+        <v>0.1847716883272209</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1377255904119732</v>
+        <v>-0.1396479204633085</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.339737055532809</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-17.35586833492335</v>
+        <v>-17.35586833492336</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-5.987459620026647</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.33709314769151</v>
+        <v>-16.22073563172309</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.233474787817785</v>
+        <v>-8.081156028372945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.9412312881454</v>
+        <v>-22.35112919738299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.23748212952626</v>
+        <v>-12.69416660252284</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.271450265221857</v>
+        <v>4.32949504123741</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-20.10948248092789</v>
+        <v>-20.11384608376267</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-12.95257964861373</v>
+        <v>-12.69603286987697</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5333415833431476</v>
+        <v>-0.6280327595447235</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-19.61595242739525</v>
+        <v>-19.96724524162402</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.162611801828587</v>
+        <v>-3.47418892388946</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.981554043125259</v>
+        <v>3.559618608621852</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.43221000248769</v>
+        <v>-11.10331971994632</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.157401936080555</v>
+        <v>1.555058058746023</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.89036359160422</v>
+        <v>16.3092705354661</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-8.354122784745012</v>
+        <v>-8.427580282742939</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-3.540743660273667</v>
+        <v>-3.432938268307442</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.84362695370529</v>
+        <v>7.872814994838281</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-11.50525359275231</v>
+        <v>-11.91386305985481</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.03259444607312858</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2417814058025233</v>
+        <v>-0.2417814058025235</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.08655625827523879</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2194968095022009</v>
+        <v>-0.2189169804901647</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1107027571433233</v>
+        <v>-0.1082467796786447</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3086414007778896</v>
+        <v>-0.2968415872757965</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1700016255900688</v>
+        <v>-0.1745882666545749</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.04573614553785774</v>
+        <v>0.06259494738290707</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2735256597677748</v>
+        <v>-0.2762111782487527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1792044120708641</v>
+        <v>-0.1761628967953468</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.007239997832067968</v>
+        <v>-0.007578915395831267</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2667868769620083</v>
+        <v>-0.2726461626232905</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.04500678747975694</v>
+        <v>-0.0516980933364621</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05898160522127292</v>
+        <v>0.0523438297558386</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1716132974748771</v>
+        <v>-0.1643071520031418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01718527522401769</v>
+        <v>0.02393004732702516</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.241252115176467</v>
+        <v>0.2525223020902068</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1250800226945604</v>
+        <v>-0.1267112587189883</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.05375280225760522</v>
+        <v>-0.0508058180876555</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1173488058622443</v>
+        <v>0.1151734329174054</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1685666928384772</v>
+        <v>-0.1755577301013329</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>11.36109634824305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-5.771419676706991</v>
+        <v>-5.771419676707001</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.127812972252886</v>
@@ -1520,7 +1520,7 @@
         <v>11.99511746429138</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-6.24629610425671</v>
+        <v>-6.246296104256698</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.047126130602894</v>
+        <v>-3.834117200943</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.334949333739518</v>
+        <v>9.243994393875443</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-8.303396569462183</v>
+        <v>-8.385726504094924</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.065400849045788</v>
+        <v>0.8114425216990108</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>10.44194177017247</v>
+        <v>10.65130697030913</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.682703388215984</v>
+        <v>-8.6653458816546</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7641809695629618</v>
+        <v>-0.6641224748455818</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>10.63777956415454</v>
+        <v>10.47655749003389</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.021026071459865</v>
+        <v>-7.93238516043152</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5649527783186078</v>
+        <v>0.7156779583351377</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.44832908830137</v>
+        <v>13.40772278781392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.431709782432048</v>
+        <v>-3.199110271476241</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.268913101131028</v>
+        <v>5.107288715590666</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.51093049930347</v>
+        <v>14.44275447825217</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.547117714474093</v>
+        <v>-4.434870242523201</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.424222663712882</v>
+        <v>2.400448357163285</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.49518712110103</v>
+        <v>13.42043259980811</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.601644522371391</v>
+        <v>-4.645760387233241</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1612151243494119</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.0818970381319624</v>
+        <v>-0.08189703813196256</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.04334544906027181</v>
@@ -1625,7 +1625,7 @@
         <v>0.1681704638642701</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.08757250743175524</v>
+        <v>-0.08757250743175508</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05687502982378922</v>
+        <v>-0.05383662149940121</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1311588929320792</v>
+        <v>0.1287621594750223</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1160213864333718</v>
+        <v>-0.117680635383838</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0150480170051333</v>
+        <v>0.01101654541428384</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1415543746011218</v>
+        <v>0.1449258800643363</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1187744376637979</v>
+        <v>-0.1185976459333096</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01090004119621661</v>
+        <v>-0.0091328665653309</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1474404387615758</v>
+        <v>0.1453645420527325</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1108937568455646</v>
+        <v>-0.1099863789804683</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.008057741080596413</v>
+        <v>0.01035289228114377</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1935678606048399</v>
+        <v>0.193487964782104</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04920412124852998</v>
+        <v>-0.04745728699750291</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.07429648065224592</v>
+        <v>0.0717330461827765</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2037710210909531</v>
+        <v>0.2031977952920913</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06405170929072208</v>
+        <v>-0.06291064530619436</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03404078451949432</v>
+        <v>0.03419053958410361</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1913135871943035</v>
+        <v>0.1912807540614198</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06514527547037974</v>
+        <v>-0.06598853865374801</v>
       </c>
     </row>
     <row r="34">
